--- a/4_Entwurf/CRUD-Matrix_KlassenAnwendungsfälle.xlsx
+++ b/4_Entwurf/CRUD-Matrix_KlassenAnwendungsfälle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alenn\Praxisprojekt_AssistenzDienstplaner\GitRepository\praxisprojekt_mi_bachelor_SoSe24\4_Entwurf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F314BCA-7D61-4FC4-AE27-99AAADE29FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1704EDF4-3621-4782-A3D2-CC438761AF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9BD8CF7D-C9A8-4577-9858-CFFFC5D82312}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>Dienstplan erstellen</t>
   </si>
@@ -50,21 +50,12 @@
     <t>Dienst tauschen</t>
   </si>
   <si>
-    <t>Schicht erstellen/ bearbeiten</t>
-  </si>
-  <si>
-    <t>Tag erstellen/ bearbeiten</t>
-  </si>
-  <si>
     <t>Tag zuordnen</t>
   </si>
   <si>
     <t>Assistenz zuordnen</t>
   </si>
   <si>
-    <t>Assistenz erstellen/ bearbeiten</t>
-  </si>
-  <si>
     <t>Zuschlag erstellen/ bearbeiten</t>
   </si>
   <si>
@@ -104,7 +95,25 @@
     <t>SchichtTag</t>
   </si>
   <si>
-    <t>CRU</t>
+    <t>Tag bearbeiten</t>
+  </si>
+  <si>
+    <t>Tag erstellen</t>
+  </si>
+  <si>
+    <t>Schicht erstellen</t>
+  </si>
+  <si>
+    <t>Schicht bearbeiten</t>
+  </si>
+  <si>
+    <t>Assistenz erstellen</t>
+  </si>
+  <si>
+    <t>Assistenz bearbeiten</t>
+  </si>
+  <si>
+    <t>RUD</t>
   </si>
 </sst>
 </file>
@@ -490,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BB0267-7320-4C55-A26C-BD00388F22BB}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="40.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,28 +521,28 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -541,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -549,28 +558,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -578,25 +572,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -604,141 +586,114 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/4_Entwurf/CRUD-Matrix_KlassenAnwendungsfälle.xlsx
+++ b/4_Entwurf/CRUD-Matrix_KlassenAnwendungsfälle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alenn\Praxisprojekt_AssistenzDienstplaner\GitRepository\praxisprojekt_mi_bachelor_SoSe24\4_Entwurf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1704EDF4-3621-4782-A3D2-CC438761AF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712AD9D8-9A0C-42FA-B2EC-318CF14EFE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9BD8CF7D-C9A8-4577-9858-CFFFC5D82312}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>Dienstplan erstellen</t>
   </si>
@@ -114,6 +114,33 @@
   </si>
   <si>
     <t>RUD</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Bearbeiten auch C -&gt; aufteilen auf zwei Schichten möglich</t>
+  </si>
+  <si>
+    <t>Kontext1: Assi-Zuordnung zu Dienst entspricht "update Dienst" // Kontext2: Assi-Zuordnung zu Schicht entspricht "create Dienst"</t>
+  </si>
+  <si>
+    <t>C/RU</t>
+  </si>
+  <si>
+    <t>Kontext1: Tag Assi zuordnen // Kontext2: Tag Schicht zuordnen</t>
+  </si>
+  <si>
+    <t>cx</t>
+  </si>
+  <si>
+    <t>Bearbeiten auch C -&gt; aufteilen auf zwei Dienste möglich</t>
+  </si>
+  <si>
+    <t>CRU</t>
+  </si>
+  <si>
+    <t>CD</t>
   </si>
 </sst>
 </file>
@@ -499,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BB0267-7320-4C55-A26C-BD00388F22BB}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="40.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -513,13 +540,14 @@
     <col min="4" max="4" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="2" customWidth="1"/>
     <col min="8" max="8" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="40.77734375" style="2"/>
+    <col min="10" max="10" width="63.88671875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="40.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -545,15 +573,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -567,21 +595,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -595,18 +623,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -616,30 +641,33 @@
       <c r="F7" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D10" s="2" t="s">
         <v>16</v>
       </c>
@@ -652,8 +680,11 @@
       <c r="I10" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -661,7 +692,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -669,7 +700,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -680,10 +711,13 @@
         <v>17</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -691,9 +725,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F26" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
